--- a/configurations/experiment_configs_lungs.xlsx
+++ b/configurations/experiment_configs_lungs.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="154">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -1996,8 +1996,8 @@
   </sheetPr>
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2062,9 +2062,7 @@
       <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="H2" s="2" t="s">
         <v>133</v>
       </c>

--- a/configurations/experiment_configs_lungs.xlsx
+++ b/configurations/experiment_configs_lungs.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="157">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -489,14 +489,24 @@
   </si>
   <si>
     <t xml:space="preserve">plan2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSL.label_localiser,TSL.lungs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plan3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/s/fran_storage/predictions/totalseg/LITS-1271</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -578,7 +588,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -588,6 +598,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -785,8 +803,8 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1107,8 +1125,8 @@
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1313,8 +1331,8 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1550,8 +1568,8 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1673,8 +1691,8 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1766,8 +1784,8 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1849,8 +1867,8 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1994,13 +2012,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="18.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="55.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="24.05"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2063,6 +2085,12 @@
         <v>152</v>
       </c>
       <c r="B2" s="2"/>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="H2" s="2" t="s">
         <v>133</v>
       </c>
@@ -2086,8 +2114,8 @@
       <c r="E3" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
+      <c r="G3" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>136</v>
@@ -2104,7 +2132,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>47</v>
@@ -2113,6 +2141,49 @@
         <v>130</v>
       </c>
       <c r="R3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/configurations/experiment_configs_lungs.xlsx
+++ b/configurations/experiment_configs_lungs.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="154">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -485,16 +485,7 @@
     <t xml:space="preserve">remapping_lbd</t>
   </si>
   <si>
-    <t xml:space="preserve">plan1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plan2</t>
-  </si>
-  <si>
     <t xml:space="preserve">TSL.label_localiser,TSL.lungs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plan3</t>
   </si>
   <si>
     <t xml:space="preserve">/s/fran_storage/predictions/totalseg/LITS-1271</t>
@@ -605,7 +596,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -804,7 +795,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1126,7 +1117,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1332,7 +1323,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1569,7 +1560,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1692,7 +1683,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1785,7 +1776,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1868,7 +1859,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2015,7 +2006,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2081,14 +2072,15 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>152</v>
+      <c r="A2" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4" t="b">
+      <c r="C2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -2102,8 +2094,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>153</v>
+      <c r="A3" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>135</v>
@@ -2114,7 +2106,8 @@
       <c r="E3" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G3" s="4" t="b">
+      <c r="G3" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -2132,7 +2125,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>47</v>
@@ -2145,8 +2138,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>155</v>
+      <c r="A4" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>135</v>
@@ -2155,9 +2148,10 @@
         <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="4" t="b">
+        <v>153</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -2175,7 +2169,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>47</v>

--- a/configurations/experiment_configs_lungs.xlsx
+++ b/configurations/experiment_configs_lungs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -215,10 +215,7 @@
     <t xml:space="preserve">samples_per_file</t>
   </si>
   <si>
-    <t xml:space="preserve">src_dims</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[192,192,128]</t>
+    <t xml:space="preserve">src_dim0</t>
   </si>
   <si>
     <t xml:space="preserve">[192,192,96]</t>
@@ -237,6 +234,9 @@
   </si>
   <si>
     <t xml:space="preserve">[256,256,128]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">src_dim1</t>
   </si>
   <si>
     <t xml:space="preserve">fgbg_ratio</t>
@@ -795,7 +795,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1114,13 +1114,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A4 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="31.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="44.88"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1199,34 +1203,62 @@
       <c r="A6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="n">
+        <v>192</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="2" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>69</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
@@ -1235,75 +1267,56 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>82</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1323,7 +1336,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1560,7 +1573,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1683,7 +1696,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1776,7 +1789,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1859,7 +1872,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2005,8 +2018,8 @@
   </sheetPr>
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/configurations/experiment_configs_lungs.xlsx
+++ b/configurations/experiment_configs_lungs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="154">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -1116,7 +1116,7 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -2016,10 +2016,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2088,16 +2088,38 @@
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="n">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="G2" s="4" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>130</v>
@@ -2117,7 +2139,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G3" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -2150,50 +2172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/configurations/experiment_configs_lungs.xlsx
+++ b/configurations/experiment_configs_lungs.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="155">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -485,10 +485,13 @@
     <t xml:space="preserve">remapping_lbd</t>
   </si>
   <si>
+    <t xml:space="preserve">/s/fran_storage/predictions/totalseg/LITS-1271</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSL.label_localiser,TSL.lungs</t>
   </si>
   <si>
-    <t xml:space="preserve">/s/fran_storage/predictions/totalseg/LITS-1271</t>
+    <t xml:space="preserve">/data/EECS-LITQ/fran_storage/predictions/totalseg</t>
   </si>
 </sst>
 </file>
@@ -2019,7 +2022,7 @@
   <dimension ref="A1:R1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2095,7 +2098,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="G2" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -2116,7 +2119,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>47</v>
@@ -2139,7 +2142,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G3" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -2160,7 +2163,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>47</v>
@@ -2170,6 +2173,11 @@
       </c>
       <c r="R3" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/configurations/experiment_configs_lungs.xlsx
+++ b/configurations/experiment_configs_lungs.xlsx
@@ -485,7 +485,7 @@
     <t xml:space="preserve">remapping_lbd</t>
   </si>
   <si>
-    <t xml:space="preserve">/s/fran_storage/predictions/totalseg/LITS-1271</t>
+    <t xml:space="preserve">$cold_storage_folder/predictions/totalseg/LITS-1271</t>
   </si>
   <si>
     <t xml:space="preserve">TSL.label_localiser,TSL.lungs</t>
@@ -2022,7 +2022,7 @@
   <dimension ref="A1:R1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/configurations/experiment_configs_lungs.xlsx
+++ b/configurations/experiment_configs_lungs.xlsx
@@ -485,13 +485,13 @@
     <t xml:space="preserve">remapping_lbd</t>
   </si>
   <si>
+    <t xml:space="preserve">use_fg_indices</t>
+  </si>
+  <si>
     <t xml:space="preserve">$cold_storage_folder/predictions/totalseg/LITS-1271</t>
   </si>
   <si>
     <t xml:space="preserve">TSL.label_localiser,TSL.lungs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/data/EECS-LITQ/fran_storage/predictions/totalseg</t>
   </si>
 </sst>
 </file>
@@ -582,7 +582,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -600,6 +600,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2019,10 +2023,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R1048576"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R4" activeCellId="0" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2084,6 +2088,9 @@
         <v>129</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2098,7 +2105,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G2" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -2119,7 +2126,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>47</v>
@@ -2127,7 +2134,10 @@
       <c r="Q2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2142,7 +2152,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G3" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -2163,7 +2173,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>47</v>
@@ -2171,16 +2181,13 @@
       <c r="Q3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/configurations/experiment_configs_lungs.xlsx
+++ b/configurations/experiment_configs_lungs.xlsx
@@ -2025,14 +2025,14 @@
   </sheetPr>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R4" activeCellId="0" sqref="R4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="55.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="24.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="68.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2134,7 +2134,8 @@
       <c r="Q2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="R2" s="5" t="b">
+      <c r="R2" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="S2" s="2" t="s">
@@ -2181,7 +2182,8 @@
       <c r="Q3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="R3" s="5" t="b">
+      <c r="R3" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="S3" s="2" t="s">

--- a/configurations/experiment_configs_lungs.xlsx
+++ b/configurations/experiment_configs_lungs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="154">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t xml:space="preserve">qloguniform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.001</t>
   </si>
   <si>
     <t xml:space="preserve">0.0005</t>
@@ -498,9 +495,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.00E+00"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -582,7 +580,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -595,15 +593,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -801,8 +803,8 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -926,19 +928,19 @@
       <c r="D6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -947,49 +949,49 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
@@ -998,23 +1000,23 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
@@ -1025,27 +1027,27 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
@@ -1056,10 +1058,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
@@ -1073,10 +1075,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
@@ -1090,10 +1092,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>11</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1129,8 +1131,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="31.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="44.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="31.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="44.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1150,7 +1152,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -1162,37 +1164,37 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1200,52 +1202,52 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>192</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="3" t="n">
-        <v>192</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="E7" s="4" t="n">
         <v>128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
@@ -1254,18 +1256,18 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
@@ -1274,53 +1276,53 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1359,13 +1361,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1376,171 +1378,171 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>0</v>
@@ -1549,10 +1551,10 @@
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0.1</v>
@@ -1602,86 +1604,86 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1725,12 +1727,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -1738,7 +1740,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1746,7 +1748,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -1757,18 +1759,18 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -1823,41 +1825,41 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1906,105 +1908,105 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2025,70 +2027,70 @@
   </sheetPr>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="55.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="68.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="55.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="4" width="68.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>0</v>
@@ -2099,42 +2101,42 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R2" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="R2" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2147,42 +2149,42 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R3" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="R3" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
